--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_284.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_284.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5050505050505051</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_150</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_173</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1164473684210526</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G', 'G', 'E:min'], ['D', 'G', 'E:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['A', 'A', 'F#:min'], ['E', 'A', 'F#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.98, 20.82)]</t>
+          <t>[('0:00:47.639639', '0:00:53.885807'), ('0:00:56.381952', '0:01:01.374243')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:17.670317', '0:00:29.605374'), ('0:00:37.337619', '0:00:50.004104')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.86, 25.5)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(53.0, 62.0)]</t>
+          <t>[('0:00:01.240000', '0:00:09.940000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:49.140000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(53.12, 74.3)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(58.68, 80.42)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:21.440000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:03:58.720000', '0:04:14.260000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2932330827067669</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(15.32, 17.86)]</t>
+          <t>[['G/5', 'C/9', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(83.2, 91.14)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07984496124031007</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'G#:dim7', 'A:min'], ['E:7', 'A:min', 'A:min', 'B:hdim7/D'], ['A:min', 'G#:dim7', 'A:min', 'G#:dim7']]</t>
-        </is>
+          <t>isophonics_215</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A:dim7/A#', 'A#:min'], ['F:7', 'A#:min', 'A#:min', 'C:hdim7/A#'], ['A#:min', 'A:dim7/A#', 'A#:min', 'A:dim7/A#']]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(20.38, 24.76), (14.2, 20.38), (21.9, 26.28)]</t>
+          <t>[['F/A', 'C:7/G', 'F/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(81.34, 92.14), (25.42, 33.68), (0.26, 8.4)]</t>
+          <t>[('0:00:06.090000', '0:00:09.538163')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:05:02.760000', '0:05:04.820000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06158536585365854</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F', 'F', 'C:7']]</t>
-        </is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05966228893058161</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
+          <t>[['A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(7.77, 13.14)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(235.32, 237.58)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:00.939000', '0:00:03.682000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:16.820000', '0:00:23.180000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1258741258741259</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G', 'C:min']]</t>
-        </is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jaah_4</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0776470588235294</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:min', 'A', 'E:min']]</t>
+          <t>[['F:7', 'Bb:7', 'Eb:7']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.766462, 8.028866)]</t>
+          <t>[['F:7', 'Bb:7', 'Eb:7']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(31.968639, 43.926916)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
-        </is>
-      </c>
+          <t>[('0:00:53.530000', '0:00:56.360000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:42.100000', '0:00:48.620000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1033041401273885</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min7/4', 'E:7', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4689655172413794</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(47.371, 50.945)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(8.35, 10.7)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:05.208150', '0:00:12.997936')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1152173913043478</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'Bb']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.444363, 11.013666)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.38, 4.14)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(58.91672, 63.328512)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.779093, 14.076327)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2202380952380952</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F/2', 'C', 'F']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_46</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4155405405405406</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(57.758, 64.527)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(11.82, 17.361)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(25.26, 45.54)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.24, 9.28)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:01.360000', '0:00:24.160000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2611607142857143</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(39.386636, 52.14687)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2107843137254902</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(3.389127, 22.035759)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1985294117647059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.162102, 17.463236)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.599751, 8.760294)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2113095238095238</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'C', 'F', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'G', 'C', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(33.724965, 60.276984)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(8.504874, 13.717755)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
